--- a/_이해를 돕기위한 작업가이드.xlsx
+++ b/_이해를 돕기위한 작업가이드.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uipath_lesson\01 과제모음_남미\20231117_REFramework_오피스디포견적서메일발송_요청메일기준\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\estimate_for_Office_Goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAF5F32-3C16-4065-8856-8E6812941E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A6A9B-9599-4120-9DB7-0ABBB753D707}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{F47375E2-DBC3-4FFC-B3DE-177BDB4EA7BD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1" xr2:uid="{F47375E2-DBC3-4FFC-B3DE-177BDB4EA7BD}"/>
   </bookViews>
   <sheets>
     <sheet name="오피스디포견적서메일발송" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>State Machines</t>
   </si>
@@ -796,6 +796,10 @@
   <si>
     <t>작업 : 
 Attach Browser 안에서 Close Tab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 아웃룩 메일 가져오기 (TransactionData에 입력 - [mailIndex], [mailSubject], [mailAttachmentName], [mailRequestDate])</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1477,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CF1B1D-1DA9-431A-826A-EEC549571256}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1682,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAAC5FB-DC3A-4918-9322-81D875B3EACE}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1"/>
@@ -1733,7 +1737,7 @@
     </row>
     <row r="9" spans="1:3" ht="16.8" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.8" customHeight="1">
